--- a/model/feature_info.xlsx
+++ b/model/feature_info.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="descriptor" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="selected" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="feature_selection" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="fs_identity" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="fs_old_TE10" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="fs_new_TE10" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="318">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -899,34 +901,91 @@
     <t xml:space="preserve">nod head YES</t>
   </si>
   <si>
-    <t xml:space="preserve">Myo_accel_x_dg1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myo_accel_x_g2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinect_audio_angle_g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinect_lean_Y_gabor4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinect_JointType_HandRight_X_dg2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinect_JointType_HandRight_Z_log3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myo_roll_gabor4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoc_GYROX_gabor2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myo_accel_x_gabor4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myo_accel_x_dg3</t>
+    <t xml:space="preserve">Myo_roll_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_pitch_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_yaw_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_accel_x_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_accel_y_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_accel_z_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_gyro_x_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_gyro_y_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_gyro_z_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_face_roll_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_face_pitch_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_face_yaw_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_JointType_HandRight_X_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_JointType_HandRight_Y_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_JointType_HandRight_Z_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_lean_X_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_lean_Y_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_audio_angle_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_audio_confidence_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoc_GYROX_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoc_GYROY_identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoc_GYROY_gabor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoc_GYROY_gabor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_audio_confidence_gabor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinect_audio_confidence_gabor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_roll_gabor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_roll_gabor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_accel_y_gabor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo_accel_y_gabor2</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1093,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1069,10 +1128,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1154,19 +1209,19 @@
   </sheetPr>
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E155" activeCellId="0" sqref="E155"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="100.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="97.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,25 +3213,24 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.9132653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.015306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="78.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,17 +3968,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,7 +3993,7 @@
       <c r="A2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="0" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3947,7 +4001,7 @@
       <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="0" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3955,7 +4009,7 @@
       <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="0" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3963,7 +4017,7 @@
       <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="0" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3971,7 +4025,7 @@
       <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="0" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3979,7 +4033,7 @@
       <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="0" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3987,7 +4041,7 @@
       <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="0" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3995,7 +4049,7 @@
       <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="0" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4003,7 +4057,7 @@
       <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="0" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4011,8 +4065,328 @@
       <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="0" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
